--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Plaur.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Plaur.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H2">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I2">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J2">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.59297266666666</v>
+        <v>14.349718</v>
       </c>
       <c r="N2">
-        <v>55.77891799999999</v>
+        <v>43.049154</v>
       </c>
       <c r="O2">
-        <v>0.1361024717868078</v>
+        <v>0.1016415840981481</v>
       </c>
       <c r="P2">
-        <v>0.1378163998421381</v>
+        <v>0.1034081666702025</v>
       </c>
       <c r="Q2">
-        <v>459.6515099621553</v>
+        <v>419.1481692360687</v>
       </c>
       <c r="R2">
-        <v>4136.863589659398</v>
+        <v>3772.333523124618</v>
       </c>
       <c r="S2">
-        <v>0.001824926454843886</v>
+        <v>0.001859530441356488</v>
       </c>
       <c r="T2">
-        <v>0.001854772448609144</v>
+        <v>0.001903566529698993</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H3">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I3">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J3">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>20.239686</v>
       </c>
       <c r="O3">
-        <v>0.04938552757134604</v>
+        <v>0.04778708884009916</v>
       </c>
       <c r="P3">
-        <v>0.05000743575655815</v>
+        <v>0.04861765281706964</v>
       </c>
       <c r="Q3">
-        <v>166.787068746294</v>
+        <v>197.063740969518</v>
       </c>
       <c r="R3">
-        <v>1501.083618716646</v>
+        <v>1773.573668725662</v>
       </c>
       <c r="S3">
-        <v>0.0006621845626179669</v>
+        <v>0.000874263690303803</v>
       </c>
       <c r="T3">
-        <v>0.0006730143449770793</v>
+        <v>0.0008949673863792374</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H4">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I4">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J4">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.343503</v>
+        <v>66.43651233333334</v>
       </c>
       <c r="N4">
-        <v>130.030509</v>
+        <v>199.309537</v>
       </c>
       <c r="O4">
-        <v>0.3172788988591848</v>
+        <v>0.4705815372480596</v>
       </c>
       <c r="P4">
-        <v>0.3212743678538321</v>
+        <v>0.4787604843769264</v>
       </c>
       <c r="Q4">
-        <v>1071.528848999861</v>
+        <v>1940.57768347407</v>
       </c>
       <c r="R4">
-        <v>9643.759640998749</v>
+        <v>17465.19915126663</v>
       </c>
       <c r="S4">
-        <v>0.004254225867395206</v>
+        <v>0.008609278391490973</v>
       </c>
       <c r="T4">
-        <v>0.004323802149977584</v>
+        <v>0.008813157250035692</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H5">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I5">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J5">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.096778500000001</v>
+        <v>7.2355625</v>
       </c>
       <c r="N5">
-        <v>10.193557</v>
+        <v>14.471125</v>
       </c>
       <c r="O5">
-        <v>0.03730894270841856</v>
+        <v>0.05125076564857627</v>
       </c>
       <c r="P5">
-        <v>0.02518584758717669</v>
+        <v>0.03476102006337534</v>
       </c>
       <c r="Q5">
-        <v>126.0014724631795</v>
+        <v>211.3472038452709</v>
       </c>
       <c r="R5">
-        <v>756.0088347790772</v>
+        <v>1268.083223071625</v>
       </c>
       <c r="S5">
-        <v>0.0005002559884253873</v>
+        <v>0.0009376315777834416</v>
       </c>
       <c r="T5">
-        <v>0.0003389583260996007</v>
+        <v>0.0006398906049835577</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H6">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I6">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J6">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>62.83028666666667</v>
+        <v>46.41124333333334</v>
       </c>
       <c r="N6">
-        <v>188.49086</v>
+        <v>139.23373</v>
       </c>
       <c r="O6">
-        <v>0.4599241590742428</v>
+        <v>0.328739024165117</v>
       </c>
       <c r="P6">
-        <v>0.4657159489602949</v>
+        <v>0.3344526760724259</v>
       </c>
       <c r="Q6">
-        <v>1553.276964122274</v>
+        <v>1355.649475142046</v>
       </c>
       <c r="R6">
-        <v>13979.49267710046</v>
+        <v>12200.84527627841</v>
       </c>
       <c r="S6">
-        <v>0.006166881130793453</v>
+        <v>0.006014272879755315</v>
       </c>
       <c r="T6">
-        <v>0.006267738179192421</v>
+        <v>0.006156698648088336</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J7">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.59297266666666</v>
+        <v>14.349718</v>
       </c>
       <c r="N7">
-        <v>55.77891799999999</v>
+        <v>43.049154</v>
       </c>
       <c r="O7">
-        <v>0.1361024717868078</v>
+        <v>0.1016415840981481</v>
       </c>
       <c r="P7">
-        <v>0.1378163998421381</v>
+        <v>0.1034081666702025</v>
       </c>
       <c r="Q7">
-        <v>27113.77850682005</v>
+        <v>20925.92090907871</v>
       </c>
       <c r="R7">
-        <v>244024.0065613805</v>
+        <v>188333.2881817084</v>
       </c>
       <c r="S7">
-        <v>0.1076481869752748</v>
+        <v>0.09283682907352557</v>
       </c>
       <c r="T7">
-        <v>0.1094087330557908</v>
+        <v>0.09503532537968855</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I8">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J8">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>20.239686</v>
       </c>
       <c r="O8">
-        <v>0.04938552757134604</v>
+        <v>0.04778708884009916</v>
       </c>
       <c r="P8">
-        <v>0.05000743575655815</v>
+        <v>0.04861765281706964</v>
       </c>
       <c r="Q8">
         <v>9838.383083221277</v>
@@ -948,10 +948,10 @@
         <v>88545.4477489915</v>
       </c>
       <c r="S8">
-        <v>0.0390607344310417</v>
+        <v>0.0436475074442538</v>
       </c>
       <c r="T8">
-        <v>0.03969955822210511</v>
+        <v>0.04468113692995516</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I9">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J9">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>43.343503</v>
+        <v>66.43651233333334</v>
       </c>
       <c r="N9">
-        <v>130.030509</v>
+        <v>199.309537</v>
       </c>
       <c r="O9">
-        <v>0.3172788988591848</v>
+        <v>0.4705815372480596</v>
       </c>
       <c r="P9">
-        <v>0.3212743678538321</v>
+        <v>0.4787604843769264</v>
       </c>
       <c r="Q9">
-        <v>63207.00627708612</v>
+        <v>96883.10268970899</v>
       </c>
       <c r="R9">
-        <v>568863.0564937751</v>
+        <v>871947.9242073809</v>
       </c>
       <c r="S9">
-        <v>0.2509469356383383</v>
+        <v>0.4298171671199978</v>
       </c>
       <c r="T9">
-        <v>0.2550510794829259</v>
+        <v>0.4399957941117745</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I10">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J10">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.096778500000001</v>
+        <v>7.2355625</v>
       </c>
       <c r="N10">
-        <v>10.193557</v>
+        <v>14.471125</v>
       </c>
       <c r="O10">
-        <v>0.03730894270841856</v>
+        <v>0.05125076564857627</v>
       </c>
       <c r="P10">
-        <v>0.02518584758717669</v>
+        <v>0.03476102006337534</v>
       </c>
       <c r="Q10">
-        <v>7432.535174704675</v>
+        <v>10551.48321435277</v>
       </c>
       <c r="R10">
-        <v>44595.21104822806</v>
+        <v>63308.89928611663</v>
       </c>
       <c r="S10">
-        <v>0.02950894269441874</v>
+        <v>0.04681114144983974</v>
       </c>
       <c r="T10">
-        <v>0.01999436698829454</v>
+        <v>0.03194645992311825</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I11">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J11">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>62.83028666666667</v>
+        <v>46.41124333333334</v>
       </c>
       <c r="N11">
-        <v>188.49086</v>
+        <v>139.23373</v>
       </c>
       <c r="O11">
-        <v>0.4599241590742428</v>
+        <v>0.328739024165117</v>
       </c>
       <c r="P11">
-        <v>0.4657159489602949</v>
+        <v>0.3344526760724259</v>
       </c>
       <c r="Q11">
-        <v>91624.21236998588</v>
+        <v>67680.63367414885</v>
       </c>
       <c r="R11">
-        <v>824617.911329873</v>
+        <v>609125.7030673396</v>
       </c>
       <c r="S11">
-        <v>0.3637700419432722</v>
+        <v>0.3002618354190981</v>
       </c>
       <c r="T11">
-        <v>0.3697193657502721</v>
+        <v>0.307372424423897</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H12">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I12">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J12">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.59297266666666</v>
+        <v>14.349718</v>
       </c>
       <c r="N12">
-        <v>55.77891799999999</v>
+        <v>43.049154</v>
       </c>
       <c r="O12">
-        <v>0.1361024717868078</v>
+        <v>0.1016415840981481</v>
       </c>
       <c r="P12">
-        <v>0.1378163998421381</v>
+        <v>0.1034081666702025</v>
       </c>
       <c r="Q12">
-        <v>1117.433752742407</v>
+        <v>832.0831688730614</v>
       </c>
       <c r="R12">
-        <v>10056.90377468166</v>
+        <v>7488.748519857551</v>
       </c>
       <c r="S12">
-        <v>0.004436479316869854</v>
+        <v>0.003691496458352372</v>
       </c>
       <c r="T12">
-        <v>0.004509036286866938</v>
+        <v>0.003778915873781499</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H13">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I13">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J13">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>20.239686</v>
       </c>
       <c r="O13">
-        <v>0.04938552757134604</v>
+        <v>0.04778708884009916</v>
       </c>
       <c r="P13">
-        <v>0.05000743575655815</v>
+        <v>0.04861765281706964</v>
       </c>
       <c r="Q13">
-        <v>405.4669594219801</v>
+        <v>391.206342031152</v>
       </c>
       <c r="R13">
-        <v>3649.20263479782</v>
+        <v>3520.857078280367</v>
       </c>
       <c r="S13">
-        <v>0.001609800826881231</v>
+        <v>0.001735567885658429</v>
       </c>
       <c r="T13">
-        <v>0.001636128520972615</v>
+        <v>0.001776668380190542</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H14">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I14">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J14">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>43.343503</v>
+        <v>66.43651233333334</v>
       </c>
       <c r="N14">
-        <v>130.030509</v>
+        <v>199.309537</v>
       </c>
       <c r="O14">
-        <v>0.3172788988591848</v>
+        <v>0.4705815372480596</v>
       </c>
       <c r="P14">
-        <v>0.3212743678538321</v>
+        <v>0.4787604843769264</v>
       </c>
       <c r="Q14">
-        <v>2604.93542816437</v>
+        <v>3852.389552965029</v>
       </c>
       <c r="R14">
-        <v>23444.41885347933</v>
+        <v>34671.50597668525</v>
       </c>
       <c r="S14">
-        <v>0.0103422168164065</v>
+        <v>0.01709093865006851</v>
       </c>
       <c r="T14">
-        <v>0.01051135992779168</v>
+        <v>0.0174956742045463</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H15">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I15">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J15">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.096778500000001</v>
+        <v>7.2355625</v>
       </c>
       <c r="N15">
-        <v>10.193557</v>
+        <v>14.471125</v>
       </c>
       <c r="O15">
-        <v>0.03730894270841856</v>
+        <v>0.05125076564857627</v>
       </c>
       <c r="P15">
-        <v>0.02518584758717669</v>
+        <v>0.03476102006337534</v>
       </c>
       <c r="Q15">
-        <v>306.3153175265151</v>
+        <v>419.5615393681666</v>
       </c>
       <c r="R15">
-        <v>1837.89190515909</v>
+        <v>2517.369236209</v>
       </c>
       <c r="S15">
-        <v>0.001216145088969831</v>
+        <v>0.001861364337817457</v>
       </c>
       <c r="T15">
-        <v>0.0008240231265376376</v>
+        <v>0.001270295903468307</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H16">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I16">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J16">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>62.83028666666667</v>
+        <v>46.41124333333334</v>
       </c>
       <c r="N16">
-        <v>188.49086</v>
+        <v>139.23373</v>
       </c>
       <c r="O16">
-        <v>0.4599241590742428</v>
+        <v>0.328739024165117</v>
       </c>
       <c r="P16">
-        <v>0.4657159489602949</v>
+        <v>0.3344526760724259</v>
       </c>
       <c r="Q16">
-        <v>3776.087034306467</v>
+        <v>2691.203717323138</v>
       </c>
       <c r="R16">
-        <v>33984.7833087582</v>
+        <v>24220.83345590824</v>
       </c>
       <c r="S16">
-        <v>0.0149919688619455</v>
+        <v>0.01193939423706655</v>
       </c>
       <c r="T16">
-        <v>0.01523715693952249</v>
+        <v>0.0122221345502587</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H17">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I17">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J17">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.59297266666666</v>
+        <v>14.349718</v>
       </c>
       <c r="N17">
-        <v>55.77891799999999</v>
+        <v>43.049154</v>
       </c>
       <c r="O17">
-        <v>0.1361024717868078</v>
+        <v>0.1016415840981481</v>
       </c>
       <c r="P17">
-        <v>0.1378163998421381</v>
+        <v>0.1034081666702025</v>
       </c>
       <c r="Q17">
-        <v>380.636117336852</v>
+        <v>423.04525608403</v>
       </c>
       <c r="R17">
-        <v>2283.816704021112</v>
+        <v>2538.27153650418</v>
       </c>
       <c r="S17">
-        <v>0.001511216443636342</v>
+        <v>0.001876819677379161</v>
       </c>
       <c r="T17">
-        <v>0.001023954551191876</v>
+        <v>0.001280843464809773</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H18">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I18">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J18">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>20.239686</v>
       </c>
       <c r="O18">
-        <v>0.04938552757134604</v>
+        <v>0.04778708884009916</v>
       </c>
       <c r="P18">
-        <v>0.05000743575655815</v>
+        <v>0.04861765281706964</v>
       </c>
       <c r="Q18">
-        <v>138.115900619604</v>
+        <v>198.89596777977</v>
       </c>
       <c r="R18">
-        <v>828.695403717624</v>
+        <v>1193.37580667862</v>
       </c>
       <c r="S18">
-        <v>0.0005483531662847288</v>
+        <v>0.0008823922753226585</v>
       </c>
       <c r="T18">
-        <v>0.0003715475189818939</v>
+        <v>0.000602192311210154</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H19">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I19">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J19">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>43.343503</v>
+        <v>66.43651233333334</v>
       </c>
       <c r="N19">
-        <v>130.030509</v>
+        <v>199.309537</v>
       </c>
       <c r="O19">
-        <v>0.3172788988591848</v>
+        <v>0.4705815372480596</v>
       </c>
       <c r="P19">
-        <v>0.3212743678538321</v>
+        <v>0.4787604843769264</v>
       </c>
       <c r="Q19">
-        <v>887.330013843126</v>
+        <v>1958.620467202549</v>
       </c>
       <c r="R19">
-        <v>5323.980083058756</v>
+        <v>11751.72280321529</v>
       </c>
       <c r="S19">
-        <v>0.003522912426791845</v>
+        <v>0.008689324322864279</v>
       </c>
       <c r="T19">
-        <v>0.00238701889994256</v>
+        <v>0.005930065848465026</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H20">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I20">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J20">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.096778500000001</v>
+        <v>7.2355625</v>
       </c>
       <c r="N20">
-        <v>10.193557</v>
+        <v>14.471125</v>
       </c>
       <c r="O20">
-        <v>0.03730894270841856</v>
+        <v>0.05125076564857627</v>
       </c>
       <c r="P20">
-        <v>0.02518584758717669</v>
+        <v>0.03476102006337534</v>
       </c>
       <c r="Q20">
-        <v>104.341463516697</v>
+        <v>213.3122330853125</v>
       </c>
       <c r="R20">
-        <v>417.3658540667881</v>
+        <v>853.24893234125</v>
       </c>
       <c r="S20">
-        <v>0.0004142605712845938</v>
+        <v>0.0009463493343149154</v>
       </c>
       <c r="T20">
-        <v>0.0001871269550797635</v>
+        <v>0.0004305600496747351</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H21">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I21">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J21">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>62.83028666666667</v>
+        <v>46.41124333333334</v>
       </c>
       <c r="N21">
-        <v>188.49086</v>
+        <v>139.23373</v>
       </c>
       <c r="O21">
-        <v>0.4599241590742428</v>
+        <v>0.328739024165117</v>
       </c>
       <c r="P21">
-        <v>0.4657159489602949</v>
+        <v>0.3344526760724259</v>
       </c>
       <c r="Q21">
-        <v>1286.26426751204</v>
+        <v>1368.253809665684</v>
       </c>
       <c r="R21">
-        <v>7717.58560507224</v>
+        <v>8209.522857994101</v>
       </c>
       <c r="S21">
-        <v>0.005106776849044572</v>
+        <v>0.006070191396070112</v>
       </c>
       <c r="T21">
-        <v>0.003460197524001287</v>
+        <v>0.004142627591510587</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H22">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I22">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J22">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>18.59297266666666</v>
+        <v>14.349718</v>
       </c>
       <c r="N22">
-        <v>55.77891799999999</v>
+        <v>43.049154</v>
       </c>
       <c r="O22">
-        <v>0.1361024717868078</v>
+        <v>0.1016415840981481</v>
       </c>
       <c r="P22">
-        <v>0.1378163998421381</v>
+        <v>0.1034081666702025</v>
       </c>
       <c r="Q22">
-        <v>5209.172904272766</v>
+        <v>310.362574418922</v>
       </c>
       <c r="R22">
-        <v>46882.55613845489</v>
+        <v>2793.263169770298</v>
       </c>
       <c r="S22">
-        <v>0.02068166259618297</v>
+        <v>0.001376908447534477</v>
       </c>
       <c r="T22">
-        <v>0.02101990349967934</v>
+        <v>0.001409515422223711</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H23">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I23">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J23">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>20.239686</v>
       </c>
       <c r="O23">
-        <v>0.04938552757134604</v>
+        <v>0.04778708884009916</v>
       </c>
       <c r="P23">
-        <v>0.05000743575655815</v>
+        <v>0.04861765281706964</v>
       </c>
       <c r="Q23">
-        <v>1890.176928533982</v>
+        <v>145.917874539198</v>
       </c>
       <c r="R23">
-        <v>17011.59235680584</v>
+        <v>1313.260870852782</v>
       </c>
       <c r="S23">
-        <v>0.007504454584520411</v>
+        <v>0.0006473575445604644</v>
       </c>
       <c r="T23">
-        <v>0.007627187149521457</v>
+        <v>0.0006626878093345418</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H24">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I24">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J24">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>43.343503</v>
+        <v>66.43651233333334</v>
       </c>
       <c r="N24">
-        <v>130.030509</v>
+        <v>199.309537</v>
       </c>
       <c r="O24">
-        <v>0.3172788988591848</v>
+        <v>0.4705815372480596</v>
       </c>
       <c r="P24">
-        <v>0.3212743678538321</v>
+        <v>0.4787604843769264</v>
       </c>
       <c r="Q24">
-        <v>12143.50203443523</v>
+        <v>1436.920711834741</v>
       </c>
       <c r="R24">
-        <v>109291.5183099171</v>
+        <v>12932.28640651267</v>
       </c>
       <c r="S24">
-        <v>0.04821260811025292</v>
+        <v>0.006374828763638084</v>
       </c>
       <c r="T24">
-        <v>0.04900110739319444</v>
+        <v>0.006525792962104838</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H25">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I25">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J25">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.096778500000001</v>
+        <v>7.2355625</v>
       </c>
       <c r="N25">
-        <v>10.193557</v>
+        <v>14.471125</v>
       </c>
       <c r="O25">
-        <v>0.03730894270841856</v>
+        <v>0.05125076564857627</v>
       </c>
       <c r="P25">
-        <v>0.02518584758717669</v>
+        <v>0.03476102006337534</v>
       </c>
       <c r="Q25">
-        <v>1427.958881953214</v>
+        <v>156.4942115844375</v>
       </c>
       <c r="R25">
-        <v>8567.753291719284</v>
+        <v>938.965269506625</v>
       </c>
       <c r="S25">
-        <v>0.005669338365320006</v>
+        <v>0.0006942789488207143</v>
       </c>
       <c r="T25">
-        <v>0.003841372191165145</v>
+        <v>0.0004738135821304897</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H26">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I26">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J26">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>62.83028666666667</v>
+        <v>46.41124333333334</v>
       </c>
       <c r="N26">
-        <v>188.49086</v>
+        <v>139.23373</v>
       </c>
       <c r="O26">
-        <v>0.4599241590742428</v>
+        <v>0.328739024165117</v>
       </c>
       <c r="P26">
-        <v>0.4657159489602949</v>
+        <v>0.3344526760724259</v>
       </c>
       <c r="Q26">
-        <v>17603.09299321782</v>
+        <v>1003.80460179889</v>
       </c>
       <c r="R26">
-        <v>158427.8369389604</v>
+        <v>9034.241416190011</v>
       </c>
       <c r="S26">
-        <v>0.06988849028918705</v>
+        <v>0.004453330233126871</v>
       </c>
       <c r="T26">
-        <v>0.07103149056730663</v>
+        <v>0.00455879085867128</v>
       </c>
     </row>
   </sheetData>
